--- a/H2/solveExcercise3.xlsx
+++ b/H2/solveExcercise3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verwalter\Desktop\Cesar\WISE2025ML\H2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC99F206-4A66-4714-AF31-2ACD03C594E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB591F9-8F1C-43E7-AD8D-0D939F7381DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{E575ADEB-230F-473E-948B-0B912F543B18}"/>
   </bookViews>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB7D122-4F6C-49C5-9796-1A0A1F2E6502}">
   <dimension ref="A6:V115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="U116" sqref="U116"/>
     </sheetView>
   </sheetViews>
